--- a/Results/attack success mechanism/unrestricted/adjective_analysis.xlsx
+++ b/Results/attack success mechanism/unrestricted/adjective_analysis.xlsx
@@ -793,7 +793,7 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="4" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" customWidth="1"/>
     <col min="12" max="12" width="22.140625" style="6" customWidth="1"/>
